--- a/docs/shrcore/shr-core-ServiceRequest-model.xlsx
+++ b/docs/shrcore/shr-core-ServiceRequest-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="176">
   <si>
     <t>Path</t>
   </si>
@@ -324,14 +324,50 @@
     <t>A reference to a document, used to describe a document that is made available to a healthcare system. A document is some sequence of bytes that is identifiable, establishes its own context (e.g., what subject, author, etc. can be displayed to the user), and has defined update management. The DocumentReference resource can be used with any document format that has a recognized mime type and that conforms to this definition.</t>
   </si>
   <si>
-    <t>shr-core-ServiceRequest-model.serviceBasedOn</t>
+    <t>shr-core-ServiceRequest-model.serviceBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>The original or initiating plan, proposal, or request.</t>
+  </si>
+  <si>
+    <t>shr-core-ServiceRequest-model.serviceBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
 </t>
   </si>
   <si>
-    <t>The original or initiating plan, proposal, or request.</t>
+    <t>shr-core-ServiceRequest-model.serviceBasedOnShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-ServiceRequest-model.serviceBasedOnShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
   </si>
   <si>
     <t>shr-core-ServiceRequest-model.code</t>
@@ -420,7 +456,7 @@
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>shr-core-ServiceRequest-model.requisition</t>
+    <t>shr-core-ServiceRequest-model.groupIdentifier</t>
   </si>
   <si>
     <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
@@ -703,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2482,16 +2518,14 @@
         <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>95</v>
@@ -2513,7 +2547,9 @@
       <c r="A19" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
@@ -2534,13 +2570,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2591,13 +2627,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2608,18 +2644,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2631,13 +2669,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2688,7 +2726,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2705,15 +2743,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>41</v>
@@ -2728,13 +2768,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2785,13 +2825,13 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
@@ -2802,7 +2842,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2828,10 +2868,10 @@
         <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2858,11 +2898,13 @@
         <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>36</v>
@@ -2880,7 +2922,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -2897,7 +2939,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2908,7 +2950,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2920,13 +2962,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2977,13 +3019,13 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>36</v>
@@ -2994,7 +3036,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3017,13 +3059,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3074,7 +3116,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -3091,7 +3133,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3099,7 +3141,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>41</v>
@@ -3114,13 +3156,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3147,13 +3189,11 @@
         <v>36</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>36</v>
@@ -3171,10 +3211,10 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>41</v>
@@ -3188,7 +3228,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3211,13 +3251,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3268,7 +3308,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
@@ -3285,7 +3325,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3296,7 +3336,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>36</v>
@@ -3308,13 +3348,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3365,13 +3405,13 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>36</v>
@@ -3382,7 +3422,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3393,7 +3433,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>36</v>
@@ -3405,13 +3445,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3462,13 +3502,13 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>36</v>
@@ -3479,7 +3519,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3502,13 +3542,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3559,7 +3599,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3576,7 +3616,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3587,7 +3627,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>36</v>
@@ -3599,13 +3639,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3656,13 +3696,13 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>36</v>
@@ -3673,7 +3713,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3696,13 +3736,13 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3729,11 +3769,13 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
@@ -3751,7 +3793,7 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>37</v>
@@ -3768,7 +3810,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3791,13 +3833,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3848,7 +3890,7 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
@@ -3865,7 +3907,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3873,7 +3915,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>41</v>
@@ -3888,13 +3930,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3945,10 +3987,10 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>41</v>
@@ -3962,7 +4004,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -3973,7 +4015,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>36</v>
@@ -3985,7 +4027,7 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>142</v>
@@ -4018,13 +4060,11 @@
         <v>36</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>36</v>
@@ -4042,13 +4082,13 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>36</v>
@@ -4059,7 +4099,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4070,7 +4110,7 @@
         <v>37</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>36</v>
@@ -4082,13 +4122,13 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4139,13 +4179,13 @@
         <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>36</v>
@@ -4156,7 +4196,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4164,10 +4204,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>36</v>
@@ -4179,13 +4219,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4236,13 +4276,13 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>36</v>
@@ -4253,7 +4293,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4264,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>36</v>
@@ -4276,13 +4316,13 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4318,28 +4358,28 @@
         <v>36</v>
       </c>
       <c r="Z37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>36</v>
@@ -4350,7 +4390,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4373,13 +4413,13 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4430,7 +4470,7 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -4447,7 +4487,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4470,13 +4510,13 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4527,7 +4567,7 @@
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
@@ -4544,7 +4584,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4567,10 +4607,10 @@
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>161</v>
@@ -4609,7 +4649,7 @@
         <v>36</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>36</v>
@@ -4624,7 +4664,7 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
@@ -4641,7 +4681,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4652,7 +4692,7 @@
         <v>37</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>36</v>
@@ -4664,13 +4704,13 @@
         <v>36</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4721,23 +4761,314 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI41">
+  <autoFilter ref="A1:AI44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4747,7 +5078,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI40">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
